--- a/biology/Botanique/Domaine_national_de_Marly-le-Roi/Domaine_national_de_Marly-le-Roi.xlsx
+++ b/biology/Botanique/Domaine_national_de_Marly-le-Roi/Domaine_national_de_Marly-le-Roi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le domaine national de Marly-le-Roi est un parc situé à Marly-le-Roi dans les Yvelines, en bordure de la forêt de Marly. Il est géré par l'Établissement public du château, du musée et du domaine national de Versailles.
 </t>
@@ -511,11 +523,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Domaine royal avec son château construit par Jules Hardouin-Mansart, il servait de lieu de villégiature pour Louis XIV. Il fut pillé par les révolutionnaires et détruit au début du XIXe siècle sous le Premier Empire[1]. L'abreuvoir de Marly fut le seul élément du domaine classé au titre des monuments historiques en 1862. Si d'autres éléments ont été classés en 1928, la totalité du domaine de Marly ne fut classé que le 28 juillet 2009[2],[3].
-Jusqu'en 2009, il a été une résidence de la présidence de la  République[4].
-La machine de Marly qui alimentait en eau les bassins du château de Marly et de Versailles, se trouvait en réalité sur la commune de Bougival. Des objets archéologiques témoignent des spécificités du lieu : un pavillon des bains, deux bassins carrelés de faïence destinés à accueillir des carpes[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Domaine royal avec son château construit par Jules Hardouin-Mansart, il servait de lieu de villégiature pour Louis XIV. Il fut pillé par les révolutionnaires et détruit au début du XIXe siècle sous le Premier Empire. L'abreuvoir de Marly fut le seul élément du domaine classé au titre des monuments historiques en 1862. Si d'autres éléments ont été classés en 1928, la totalité du domaine de Marly ne fut classé que le 28 juillet 2009,.
+Jusqu'en 2009, il a été une résidence de la présidence de la  République.
+La machine de Marly qui alimentait en eau les bassins du château de Marly et de Versailles, se trouvait en réalité sur la commune de Bougival. Des objets archéologiques témoignent des spécificités du lieu : un pavillon des bains, deux bassins carrelés de faïence destinés à accueillir des carpes.
 Parc en pente, sur un versant sud de la Seine, sa partie aval donne sur le centre de Marly, tandis qu'à l'ouest, le parc est contigu à la forêt domaniale de Marly est très proche à l'est de la forêt domaniale de Louveciennes dont il est séparé par la route de Versailles, grand axe de circulation et quelques zones habitées. Le parc présente encore les grands alignements de l'époque, le tracé au sol du château, l'abreuvoir en aval du parc avec ses deux bassins surmontés par des copies des Chevaux de Marly.
 Une grande partie des sculptures originales du jardin sont exposées à Paris dans la cour Marly du musée du Louvre.
 La grille royale et les portes de l'ancien château, tels que la porte d'honneur ou la porte du Phare, protègent l'accès au domaine.
@@ -556,7 +570,9 @@
           <t>Films tournés au domaine national de Marly</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La Princesse de Clèves, 1961, de Jean Delannoy, avec Jean Marais et Marina Vlady.
 Un peuple et son roi, 2018, de Pierre Schoeller, avec Gaspard Ulliel et Adèle Haenel.
